--- a/课表.xlsx
+++ b/课表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\上课\软件工程营\2023\Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\上课\软件工程营\2024\material\aiSummerCamp2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F857F7D-A7EF-43DD-969F-091899FA7929}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,51 +63,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能介绍，传统机器学习（郑玮，罗润玉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Git，GitHub，如何找到好玩的项目，布置大作业（罗润玉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续深度学习，循环神经网络，transformer（郑玮，罗润玉）</t>
-  </si>
-  <si>
-    <t>深度学习基础，神经网络，卷积神经网络，图像分类, （郑玮，罗润玉）</t>
-  </si>
-  <si>
     <t>FashionMNIST识别作业</t>
   </si>
   <si>
     <t>FashionMNIST识别作业（CNN）</t>
   </si>
   <si>
-    <t>NLP，LLM，ChatGPT，Stable diffusion（郑玮，罗润玉）</t>
-  </si>
-  <si>
     <t>Household Electric Power Consumption</t>
   </si>
   <si>
     <t>上课时间地点：上午8：30，下午14：30，地点=电气大楼B305</t>
+  </si>
+  <si>
+    <t>人工智能介绍，传统机器学习（郑玮，朱剑锋）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习基础，神经网络，卷积神经网络，图像分类, （郑玮，朱剑锋）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续深度学习，循环神经网络，transformer（郑玮，朱剑锋）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLP，LLM，ChatGPT，Stable diffusion（郑玮，朱剑锋）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git，GitHub，如何找到好玩的项目，布置大作业（朱剑锋）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -114,7 +118,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -122,7 +126,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -458,14 +462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
@@ -474,15 +478,15 @@
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4">
+    <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="49.95" customHeight="1">
+    <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -494,12 +498,12 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="49.95" customHeight="1">
+    <row r="3" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45152</v>
+        <v>45157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -509,54 +513,54 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="49.95" customHeight="1">
+    <row r="4" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45153</v>
+        <v>45158</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="49.95" customHeight="1">
+    <row r="5" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45154</v>
+        <v>45159</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="49.95" customHeight="1">
-      <c r="A6" s="1">
-        <v>45155</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="49.95" customHeight="1">
+    <row r="7" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -569,9 +573,9 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="49.95" customHeight="1">
+    <row r="8" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45157</v>
+        <v>45162</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -584,9 +588,9 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="49.95" customHeight="1">
+    <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45158</v>
+        <v>45163</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -599,28 +603,27 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="49.95" customHeight="1">
+    <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45159</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>45164</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45165</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="49.95" customHeight="1">
-      <c r="A11" s="1">
-        <v>45160</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -629,24 +632,24 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="49.95" customHeight="1">
+    <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45161</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>45166</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="49.95" customHeight="1">
+    <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45162</v>
+        <v>45167</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -659,9 +662,9 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="49.95" customHeight="1">
+    <row r="14" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45163</v>
+        <v>45168</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -674,9 +677,9 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="49.95" customHeight="1">
+    <row r="15" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45164</v>
+        <v>45169</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -687,42 +690,42 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="49.95" customHeight="1">
+    <row r="16" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="49.95" customHeight="1">
+    <row r="17" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="49.95" customHeight="1">
+    <row r="18" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="49.95" customHeight="1">
+    <row r="19" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="49.95" customHeight="1">
+    <row r="20" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="49.95" customHeight="1">
+    <row r="21" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
